--- a/xlsx/form_g_registo_membros.xlsx
+++ b/xlsx/form_g_registo_membros.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Terra_Share\projects\CaVaTeCo_Collect\projects\odk_forms_ilrg_madal\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Terra_Share\projects\CaVaTeCo_Collect\projects\monitor_forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38AA1C6F-EF76-4A41-9A14-35B60535D791}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9583D672-2397-4CA7-B2C5-DF5524DEC562}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1151" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="243">
   <si>
     <t>type</t>
   </si>
@@ -511,9 +511,6 @@
   </si>
   <si>
     <t>assoc_name</t>
-  </si>
-  <si>
-    <t>Outra associação (não está na lista)</t>
   </si>
   <si>
     <t>select_one_external genders</t>
@@ -768,6 +765,9 @@
     <t>languages</t>
   </si>
   <si>
+    <t>"Novo Madal"</t>
+  </si>
+  <si>
     <t>search('enum_names_madal')</t>
   </si>
   <si>
@@ -775,9 +775,6 @@
   </si>
   <si>
     <t>http://cavateco.terrafirma.co.mz:8080/madal/submission</t>
-  </si>
-  <si>
-    <t>"Novo Madal"</t>
   </si>
 </sst>
 </file>
@@ -2102,7 +2099,7 @@
         <v>12</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Q1" s="6" t="s">
         <v>13</v>
@@ -2111,7 +2108,7 @@
         <v>32</v>
       </c>
       <c r="S1" s="67" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:19" s="34" customFormat="1" x14ac:dyDescent="0.25">
@@ -2149,10 +2146,10 @@
         <v>90</v>
       </c>
       <c r="B6" s="61" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N6" s="62" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="1:19" s="34" customFormat="1" x14ac:dyDescent="0.25">
@@ -2186,7 +2183,7 @@
         <v>95</v>
       </c>
       <c r="O9" s="62" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P9" s="62"/>
     </row>
@@ -2198,7 +2195,7 @@
         <v>96</v>
       </c>
       <c r="C10" s="63" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:19" s="34" customFormat="1" x14ac:dyDescent="0.25">
@@ -2215,12 +2212,12 @@
         <v>40</v>
       </c>
       <c r="C12" s="63" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:19" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="45" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B13" s="46" t="s">
         <v>98</v>
@@ -2246,7 +2243,7 @@
         <v>100</v>
       </c>
       <c r="G14" s="45" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L14" s="34" t="s">
         <v>29</v>
@@ -2390,13 +2387,13 @@
         <v>39</v>
       </c>
       <c r="B23" s="49" t="s">
+        <v>185</v>
+      </c>
+      <c r="C23" s="47" t="s">
+        <v>187</v>
+      </c>
+      <c r="G23" s="45" t="s">
         <v>186</v>
-      </c>
-      <c r="C23" s="47" t="s">
-        <v>188</v>
-      </c>
-      <c r="G23" s="45" t="s">
-        <v>187</v>
       </c>
       <c r="J23" s="28"/>
       <c r="L23" s="45"/>
@@ -2435,21 +2432,21 @@
         <v>39</v>
       </c>
       <c r="B26" s="61" t="s">
+        <v>201</v>
+      </c>
+      <c r="C26" s="64" t="s">
         <v>202</v>
-      </c>
-      <c r="C26" s="64" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="27" spans="1:19" s="60" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="60" t="s">
+        <v>203</v>
+      </c>
+      <c r="B27" s="61" t="s">
         <v>204</v>
       </c>
-      <c r="B27" s="61" t="s">
+      <c r="C27" s="64" t="s">
         <v>205</v>
-      </c>
-      <c r="C27" s="64" t="s">
-        <v>206</v>
       </c>
       <c r="D27" s="60" t="s">
         <v>154</v>
@@ -2460,16 +2457,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="61" t="s">
+        <v>206</v>
+      </c>
+      <c r="C28" s="65" t="s">
         <v>207</v>
-      </c>
-      <c r="C28" s="65" t="s">
-        <v>208</v>
       </c>
       <c r="D28" s="68"/>
       <c r="E28" s="68"/>
       <c r="F28" s="68"/>
       <c r="G28" s="65" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H28" s="68"/>
       <c r="I28" s="68"/>
@@ -2480,7 +2477,7 @@
       <c r="N28" s="68"/>
       <c r="O28" s="68"/>
       <c r="P28" s="65" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="Q28" s="65"/>
       <c r="R28" s="65"/>
@@ -2493,16 +2490,16 @@
         <v>27</v>
       </c>
       <c r="B29" s="61" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C29" s="65" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D29" s="68"/>
       <c r="E29" s="68"/>
       <c r="F29" s="68"/>
       <c r="G29" s="65" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H29" s="68"/>
       <c r="I29" s="68"/>
@@ -2513,7 +2510,7 @@
       <c r="N29" s="68"/>
       <c r="O29" s="68"/>
       <c r="P29" s="65" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Q29" s="65"/>
       <c r="R29" s="65"/>
@@ -2526,16 +2523,16 @@
         <v>27</v>
       </c>
       <c r="B30" s="61" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C30" s="65" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D30" s="68"/>
       <c r="E30" s="68"/>
       <c r="F30" s="68"/>
       <c r="G30" s="65" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H30" s="68"/>
       <c r="I30" s="68"/>
@@ -2546,7 +2543,7 @@
       <c r="N30" s="68"/>
       <c r="O30" s="68"/>
       <c r="P30" s="65" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Q30" s="65"/>
       <c r="R30" s="65"/>
@@ -2559,16 +2556,16 @@
         <v>27</v>
       </c>
       <c r="B31" s="61" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C31" s="65" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D31" s="68"/>
       <c r="E31" s="68"/>
       <c r="F31" s="68"/>
       <c r="G31" s="65" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H31" s="68"/>
       <c r="I31" s="68"/>
@@ -2579,7 +2576,7 @@
       <c r="N31" s="68"/>
       <c r="O31" s="68"/>
       <c r="P31" s="65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="Q31" s="65"/>
       <c r="R31" s="65"/>
@@ -2592,16 +2589,16 @@
         <v>27</v>
       </c>
       <c r="B32" s="61" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C32" s="65" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D32" s="68"/>
       <c r="E32" s="68"/>
       <c r="F32" s="68"/>
       <c r="G32" s="65" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H32" s="68"/>
       <c r="I32" s="68"/>
@@ -2612,7 +2609,7 @@
       <c r="N32" s="68"/>
       <c r="O32" s="68"/>
       <c r="P32" s="65" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Q32" s="65"/>
       <c r="R32" s="65"/>
@@ -2625,16 +2622,16 @@
         <v>27</v>
       </c>
       <c r="B33" s="61" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C33" s="65" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D33" s="68"/>
       <c r="E33" s="68"/>
       <c r="F33" s="68"/>
       <c r="G33" s="65" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H33" s="68"/>
       <c r="I33" s="68"/>
@@ -2645,7 +2642,7 @@
       <c r="N33" s="68"/>
       <c r="O33" s="68"/>
       <c r="P33" s="65" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Q33" s="65"/>
       <c r="R33" s="65"/>
@@ -2658,16 +2655,16 @@
         <v>27</v>
       </c>
       <c r="B34" s="61" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C34" s="65" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D34" s="68"/>
       <c r="E34" s="68"/>
       <c r="F34" s="68"/>
       <c r="G34" s="65" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H34" s="68"/>
       <c r="I34" s="68"/>
@@ -2678,7 +2675,7 @@
       <c r="N34" s="68"/>
       <c r="O34" s="68"/>
       <c r="P34" s="65" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Q34" s="65"/>
       <c r="R34" s="65"/>
@@ -2691,16 +2688,16 @@
         <v>27</v>
       </c>
       <c r="B35" s="61" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C35" s="65" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D35" s="68"/>
       <c r="E35" s="68"/>
       <c r="F35" s="68"/>
       <c r="G35" s="65" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H35" s="68"/>
       <c r="I35" s="68"/>
@@ -2711,7 +2708,7 @@
       <c r="N35" s="68"/>
       <c r="O35" s="68"/>
       <c r="P35" s="65" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Q35" s="65"/>
       <c r="R35" s="65"/>
@@ -2724,16 +2721,16 @@
         <v>27</v>
       </c>
       <c r="B36" s="61" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C36" s="65" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D36" s="68"/>
       <c r="E36" s="68"/>
       <c r="F36" s="68"/>
       <c r="G36" s="65" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H36" s="68"/>
       <c r="I36" s="68"/>
@@ -2744,7 +2741,7 @@
       <c r="N36" s="68"/>
       <c r="O36" s="68"/>
       <c r="P36" s="65" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Q36" s="65"/>
       <c r="R36" s="65"/>
@@ -2757,16 +2754,16 @@
         <v>27</v>
       </c>
       <c r="B37" s="61" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C37" s="65" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D37" s="68"/>
       <c r="E37" s="68"/>
       <c r="F37" s="68"/>
       <c r="G37" s="65" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H37" s="68"/>
       <c r="I37" s="68"/>
@@ -2777,7 +2774,7 @@
       <c r="N37" s="68"/>
       <c r="O37" s="68"/>
       <c r="P37" s="65" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Q37" s="65"/>
       <c r="R37" s="65"/>
@@ -2790,16 +2787,16 @@
         <v>27</v>
       </c>
       <c r="B38" s="61" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C38" s="65" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D38" s="68"/>
       <c r="E38" s="68"/>
       <c r="F38" s="68"/>
       <c r="G38" s="65" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H38" s="68"/>
       <c r="I38" s="68"/>
@@ -2810,7 +2807,7 @@
       <c r="N38" s="68"/>
       <c r="O38" s="68"/>
       <c r="P38" s="65" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Q38" s="65"/>
       <c r="R38" s="65"/>
@@ -2823,16 +2820,16 @@
         <v>27</v>
       </c>
       <c r="B39" s="61" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C39" s="65" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D39" s="68"/>
       <c r="E39" s="68"/>
       <c r="F39" s="68"/>
       <c r="G39" s="65" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H39" s="68"/>
       <c r="I39" s="68"/>
@@ -2843,7 +2840,7 @@
       <c r="N39" s="68"/>
       <c r="O39" s="68"/>
       <c r="P39" s="65" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Q39" s="65"/>
       <c r="R39" s="65"/>
@@ -2859,7 +2856,7 @@
         <v>33</v>
       </c>
       <c r="C40" s="60" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J40" s="60" t="s">
         <v>22</v>
@@ -2868,7 +2865,7 @@
         <v>33</v>
       </c>
       <c r="M40" s="44" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="41" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -2916,7 +2913,7 @@
     </row>
     <row r="44" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B44" s="38" t="s">
         <v>144</v>
@@ -2942,7 +2939,7 @@
     </row>
     <row r="46" spans="1:19" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="39" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B46" s="35" t="s">
         <v>124</v>
@@ -2979,7 +2976,7 @@
     </row>
     <row r="48" spans="1:19" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="39" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B48" s="35" t="s">
         <v>137</v>
@@ -3013,7 +3010,7 @@
     </row>
     <row r="50" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="39" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B50" s="35" t="s">
         <v>129</v>
@@ -3095,7 +3092,7 @@
     </row>
     <row r="55" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="39" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B55" s="35" t="s">
         <v>128</v>
@@ -3127,7 +3124,7 @@
         <v>22</v>
       </c>
       <c r="M57" s="44" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="58" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -3144,7 +3141,7 @@
         <v>22</v>
       </c>
       <c r="M58" s="44" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="59" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -3158,7 +3155,7 @@
         <v>111</v>
       </c>
       <c r="M59" s="44" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="60" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.25">
@@ -3202,11 +3199,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C31" sqref="C31"/>
+      <selection pane="bottomRight" activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3359,25 +3356,19 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="41" t="s">
-        <v>89</v>
-      </c>
-      <c r="B17" s="43">
-        <v>1</v>
-      </c>
-      <c r="C17" s="41" t="s">
-        <v>158</v>
-      </c>
+      <c r="A17" s="41"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="41"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="50" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="51" t="s">
+        <v>190</v>
+      </c>
+      <c r="C19" s="50" t="s">
         <v>191</v>
-      </c>
-      <c r="C19" s="50" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -3388,7 +3379,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="50" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -3405,7 +3396,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F38E9BE-58F2-4AD9-BF53-25184C6223D5}">
   <dimension ref="A1:M846"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A823" workbookViewId="0">
+    <sheetView topLeftCell="A823" workbookViewId="0">
       <selection activeCell="A848" sqref="A848"/>
     </sheetView>
   </sheetViews>
@@ -6522,25 +6513,25 @@
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A584" s="52" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B584" s="54"/>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A585" s="52" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B585" s="54"/>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A586" s="52" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B586" s="54"/>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A587" s="52" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B587" s="54"/>
     </row>
@@ -6549,19 +6540,19 @@
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A589" s="52" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B589" s="54"/>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A590" s="52" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B590" s="54"/>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A591" s="52" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B591" s="54"/>
     </row>
@@ -6696,31 +6687,31 @@
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A616" s="52" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B616" s="54"/>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A617" s="52" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B617" s="54"/>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A618" s="52" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B618" s="54"/>
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A619" s="52" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B619" s="54"/>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A620" s="52" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B620" s="54"/>
     </row>
@@ -6729,131 +6720,131 @@
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A622" s="52" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B622" s="54"/>
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A623" s="52" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B623" s="54"/>
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A626" s="55" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B626" s="54"/>
       <c r="C626" s="55"/>
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A627" s="55" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B627" s="54"/>
       <c r="C627" s="55"/>
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A628" s="55" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B628" s="54"/>
       <c r="C628" s="55"/>
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A629" s="55" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B629" s="54"/>
       <c r="C629" s="55"/>
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A630" s="55" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B630" s="54"/>
       <c r="C630" s="55"/>
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A631" s="55" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B631" s="54"/>
       <c r="C631" s="55"/>
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A632" s="55" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B632" s="54"/>
       <c r="C632" s="55"/>
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A633" s="55" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B633" s="54"/>
       <c r="C633" s="55"/>
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A634" s="55" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B634" s="54"/>
       <c r="C634" s="55"/>
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A635" s="55" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B635" s="54"/>
       <c r="C635" s="55"/>
     </row>
     <row r="636" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A636" s="55" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B636" s="54"/>
       <c r="C636" s="55"/>
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A637" s="55" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B637" s="54"/>
       <c r="C637" s="55"/>
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A638" s="55" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B638" s="54"/>
       <c r="C638" s="55"/>
     </row>
     <row r="639" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A639" s="55" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B639" s="54"/>
       <c r="C639" s="55"/>
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A640" s="55" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B640" s="54"/>
       <c r="C640" s="55"/>
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A641" s="55" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B641" s="54"/>
       <c r="C641" s="55"/>
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A642" s="55" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B642" s="54"/>
       <c r="C642" s="55"/>
@@ -6865,168 +6856,168 @@
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A644" s="55" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B644" s="56"/>
       <c r="C644" s="55"/>
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A645" s="55" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B645" s="56"/>
       <c r="C645" s="55"/>
     </row>
     <row r="647" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A647" s="55" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B647" s="54"/>
       <c r="C647" s="55"/>
     </row>
     <row r="648" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A648" s="55" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B648" s="54"/>
       <c r="C648" s="55"/>
     </row>
     <row r="649" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A649" s="55" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B649" s="54"/>
       <c r="C649" s="55"/>
     </row>
     <row r="650" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A650" s="55" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B650" s="54"/>
       <c r="C650" s="55"/>
     </row>
     <row r="651" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A651" s="55" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B651" s="54"/>
       <c r="C651" s="55"/>
     </row>
     <row r="652" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A652" s="55" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B652" s="54"/>
       <c r="C652" s="55"/>
     </row>
     <row r="653" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A653" s="55" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B653" s="54"/>
       <c r="C653" s="55"/>
     </row>
     <row r="654" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A654" s="55" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B654" s="54"/>
       <c r="C654" s="55"/>
     </row>
     <row r="655" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A655" s="55" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B655" s="54"/>
       <c r="C655" s="55"/>
     </row>
     <row r="656" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A656" s="55" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B656" s="54"/>
       <c r="C656" s="55"/>
     </row>
     <row r="657" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A657" s="55" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B657" s="54"/>
       <c r="C657" s="55"/>
     </row>
     <row r="658" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A658" s="55" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B658" s="54"/>
       <c r="C658" s="55"/>
     </row>
     <row r="659" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A659" s="55" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B659" s="54"/>
       <c r="C659" s="55"/>
     </row>
     <row r="660" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A660" s="55" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B660" s="54"/>
       <c r="C660" s="55"/>
     </row>
     <row r="661" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A661" s="55" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B661" s="54"/>
       <c r="C661" s="55"/>
     </row>
     <row r="662" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A662" s="55" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B662" s="54"/>
       <c r="C662" s="55"/>
     </row>
     <row r="663" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A663" s="55" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B663" s="54"/>
       <c r="C663" s="55"/>
     </row>
     <row r="664" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A664" s="55" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B664" s="54"/>
       <c r="C664" s="55"/>
     </row>
     <row r="665" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A665" s="55" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B665" s="54"/>
       <c r="C665" s="55"/>
     </row>
     <row r="668" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A668" s="55" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B668" s="54"/>
       <c r="C668" s="55"/>
     </row>
     <row r="669" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A669" s="55" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B669" s="54"/>
       <c r="C669" s="55"/>
     </row>
     <row r="670" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A670" s="55" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B670" s="54"/>
       <c r="C670" s="55"/>
@@ -7043,483 +7034,483 @@
     </row>
     <row r="673" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A673" s="55" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B673" s="54"/>
       <c r="C673" s="55"/>
     </row>
     <row r="674" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A674" s="55" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B674" s="54"/>
       <c r="C674" s="55"/>
     </row>
     <row r="675" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A675" s="55" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B675" s="54"/>
       <c r="C675" s="55"/>
     </row>
     <row r="676" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A676" s="55" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B676" s="54"/>
       <c r="C676" s="55"/>
     </row>
     <row r="677" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A677" s="55" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B677" s="54"/>
       <c r="C677" s="55"/>
     </row>
     <row r="678" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A678" s="55" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B678" s="54"/>
       <c r="C678" s="55"/>
     </row>
     <row r="679" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A679" s="55" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B679" s="54"/>
       <c r="C679" s="55"/>
     </row>
     <row r="680" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A680" s="55" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B680" s="54"/>
       <c r="C680" s="55"/>
     </row>
     <row r="681" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A681" s="55" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B681" s="54"/>
       <c r="C681" s="55"/>
     </row>
     <row r="682" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A682" s="55" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B682" s="54"/>
       <c r="C682" s="55"/>
     </row>
     <row r="684" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A684" s="55" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B684" s="54"/>
       <c r="C684" s="55"/>
     </row>
     <row r="685" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A685" s="55" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B685" s="54"/>
       <c r="C685" s="55"/>
     </row>
     <row r="686" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A686" s="55" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B686" s="54"/>
       <c r="C686" s="55"/>
     </row>
     <row r="687" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A687" s="55" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B687" s="54"/>
       <c r="C687" s="55"/>
     </row>
     <row r="688" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A688" s="55" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B688" s="54"/>
       <c r="C688" s="55"/>
     </row>
     <row r="689" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A689" s="55" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B689" s="54"/>
       <c r="C689" s="55"/>
     </row>
     <row r="690" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A690" s="55" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B690" s="54"/>
       <c r="C690" s="55"/>
     </row>
     <row r="691" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A691" s="55" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B691" s="54"/>
       <c r="C691" s="55"/>
     </row>
     <row r="692" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A692" s="55" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B692" s="54"/>
       <c r="C692" s="55"/>
     </row>
     <row r="693" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A693" s="55" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B693" s="54"/>
       <c r="C693" s="55"/>
     </row>
     <row r="694" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A694" s="55" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B694" s="54"/>
       <c r="C694" s="55"/>
     </row>
     <row r="696" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A696" s="55" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B696" s="54"/>
       <c r="C696" s="55"/>
     </row>
     <row r="697" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A697" s="55" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B697" s="54"/>
       <c r="C697" s="55"/>
     </row>
     <row r="698" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A698" s="55" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B698" s="54"/>
       <c r="C698" s="55"/>
     </row>
     <row r="699" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A699" s="55" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B699" s="54"/>
       <c r="C699" s="55"/>
     </row>
     <row r="700" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A700" s="55" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B700" s="54"/>
       <c r="C700" s="55"/>
     </row>
     <row r="701" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A701" s="55" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B701" s="54"/>
       <c r="C701" s="55"/>
     </row>
     <row r="702" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A702" s="55" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B702" s="54"/>
       <c r="C702" s="55"/>
     </row>
     <row r="703" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A703" s="55" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B703" s="54"/>
       <c r="C703" s="55"/>
     </row>
     <row r="704" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A704" s="55" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B704" s="54"/>
       <c r="C704" s="55"/>
     </row>
     <row r="705" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A705" s="55" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B705" s="54"/>
       <c r="C705" s="55"/>
     </row>
     <row r="706" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A706" s="55" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B706" s="54"/>
       <c r="C706" s="55"/>
     </row>
     <row r="707" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A707" s="55" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B707" s="54"/>
       <c r="C707" s="55"/>
     </row>
     <row r="709" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A709" s="55" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B709" s="54"/>
       <c r="C709" s="55"/>
     </row>
     <row r="710" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A710" s="55" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B710" s="54"/>
       <c r="C710" s="55"/>
     </row>
     <row r="711" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A711" s="55" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B711" s="54"/>
       <c r="C711" s="55"/>
     </row>
     <row r="712" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A712" s="55" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B712" s="54"/>
       <c r="C712" s="55"/>
     </row>
     <row r="714" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A714" s="55" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B714" s="54"/>
       <c r="C714" s="55"/>
     </row>
     <row r="715" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A715" s="55" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B715" s="54"/>
       <c r="C715" s="55"/>
     </row>
     <row r="716" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A716" s="55" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B716" s="54"/>
       <c r="C716" s="55"/>
     </row>
     <row r="717" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A717" s="55" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B717" s="54"/>
       <c r="C717" s="55"/>
     </row>
     <row r="718" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A718" s="55" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B718" s="54"/>
       <c r="C718" s="55"/>
     </row>
     <row r="719" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A719" s="55" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B719" s="54"/>
       <c r="C719" s="55"/>
     </row>
     <row r="720" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A720" s="55" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B720" s="54"/>
       <c r="C720" s="55"/>
     </row>
     <row r="721" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A721" s="55" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B721" s="54"/>
       <c r="C721" s="55"/>
     </row>
     <row r="722" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A722" s="55" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B722" s="54"/>
       <c r="C722" s="55"/>
     </row>
     <row r="723" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A723" s="55" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B723" s="54"/>
       <c r="C723" s="55"/>
     </row>
     <row r="724" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A724" s="55" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B724" s="54"/>
       <c r="C724" s="55"/>
     </row>
     <row r="725" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A725" s="55" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B725" s="54"/>
       <c r="C725" s="55"/>
     </row>
     <row r="726" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A726" s="55" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B726" s="54"/>
       <c r="C726" s="55"/>
     </row>
     <row r="727" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A727" s="55" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B727" s="54"/>
       <c r="C727" s="55"/>
     </row>
     <row r="728" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A728" s="55" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B728" s="54"/>
       <c r="C728" s="55"/>
     </row>
     <row r="729" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A729" s="55" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B729" s="54"/>
       <c r="C729" s="55"/>
     </row>
     <row r="730" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A730" s="55" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B730" s="54"/>
       <c r="C730" s="55"/>
     </row>
     <row r="731" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A731" s="55" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B731" s="54"/>
       <c r="C731" s="55"/>
     </row>
     <row r="732" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A732" s="55" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B732" s="54"/>
       <c r="C732" s="55"/>
     </row>
     <row r="733" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A733" s="55" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B733" s="54"/>
       <c r="C733" s="55"/>
     </row>
     <row r="734" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A734" s="55" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B734" s="54"/>
       <c r="C734" s="55"/>
     </row>
     <row r="735" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A735" s="55" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B735" s="54"/>
       <c r="C735" s="55"/>
     </row>
     <row r="736" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A736" s="55" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B736" s="54"/>
       <c r="C736" s="55"/>
     </row>
     <row r="737" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A737" s="55" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B737" s="54"/>
       <c r="C737" s="55"/>
     </row>
     <row r="738" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A738" s="55" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B738" s="54"/>
       <c r="C738" s="55"/>
     </row>
     <row r="739" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A739" s="55" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B739" s="54"/>
       <c r="C739" s="55"/>
     </row>
     <row r="740" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A740" s="55" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B740" s="54"/>
       <c r="C740" s="55"/>
     </row>
     <row r="742" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A742" s="55" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B742" s="54"/>
       <c r="C742" s="55"/>
     </row>
     <row r="743" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A743" s="55" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B743" s="54"/>
       <c r="C743" s="55"/>
     </row>
     <row r="744" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A744" s="55" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B744" s="54"/>
       <c r="C744" s="55"/>
     </row>
     <row r="745" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A745" s="55" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B745" s="54"/>
       <c r="C745" s="55"/>
     </row>
     <row r="746" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A746" s="55" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B746" s="54"/>
       <c r="C746" s="55"/>
@@ -7531,63 +7522,63 @@
     </row>
     <row r="748" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A748" s="55" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B748" s="54"/>
       <c r="C748" s="55"/>
     </row>
     <row r="749" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A749" s="55" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B749" s="54"/>
       <c r="C749" s="55"/>
     </row>
     <row r="750" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A750" s="55" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B750" s="54"/>
       <c r="C750" s="55"/>
     </row>
     <row r="751" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A751" s="55" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B751" s="54"/>
       <c r="C751" s="55"/>
     </row>
     <row r="752" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A752" s="55" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B752" s="54"/>
       <c r="C752" s="55"/>
     </row>
     <row r="753" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A753" s="55" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B753" s="54"/>
       <c r="C753" s="55"/>
     </row>
     <row r="754" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A754" s="55" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B754" s="54"/>
       <c r="C754" s="55"/>
     </row>
     <row r="755" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A755" s="55" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B755" s="54"/>
       <c r="C755" s="55"/>
     </row>
     <row r="756" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A756" s="55" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B756" s="54"/>
       <c r="C756" s="55"/>
@@ -7599,112 +7590,112 @@
     </row>
     <row r="758" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A758" s="55" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B758" s="54"/>
       <c r="C758" s="55"/>
     </row>
     <row r="759" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A759" s="55" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B759" s="54"/>
       <c r="C759" s="55"/>
     </row>
     <row r="760" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A760" s="55" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B760" s="54"/>
       <c r="C760" s="55"/>
     </row>
     <row r="761" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A761" s="55" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B761" s="54"/>
       <c r="C761" s="55"/>
     </row>
     <row r="762" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A762" s="55" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B762" s="54"/>
       <c r="C762" s="55"/>
     </row>
     <row r="763" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A763" s="55" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B763" s="54"/>
       <c r="C763" s="55"/>
     </row>
     <row r="764" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A764" s="55" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B764" s="54"/>
       <c r="C764" s="55"/>
     </row>
     <row r="765" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A765" s="55" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B765" s="54"/>
       <c r="C765" s="55"/>
     </row>
     <row r="766" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A766" s="55" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B766" s="54"/>
       <c r="C766" s="55"/>
     </row>
     <row r="767" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A767" s="55" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B767" s="54"/>
       <c r="C767" s="55"/>
     </row>
     <row r="768" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A768" s="55" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B768" s="54"/>
       <c r="C768" s="55"/>
     </row>
     <row r="769" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A769" s="55" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B769" s="54"/>
       <c r="C769" s="55"/>
     </row>
     <row r="770" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A770" s="55" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B770" s="54"/>
       <c r="C770" s="55"/>
     </row>
     <row r="771" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A771" s="55" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B771" s="54"/>
       <c r="C771" s="55"/>
     </row>
     <row r="772" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A772" s="55" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B772" s="54"/>
       <c r="C772" s="55"/>
     </row>
     <row r="773" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A773" s="55" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B773" s="54"/>
       <c r="C773" s="55"/>
@@ -7716,147 +7707,147 @@
     </row>
     <row r="775" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A775" s="55" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B775" s="54"/>
       <c r="C775" s="55"/>
     </row>
     <row r="776" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A776" s="55" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B776" s="54"/>
       <c r="C776" s="55"/>
     </row>
     <row r="777" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A777" s="55" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B777" s="54"/>
       <c r="C777" s="55"/>
     </row>
     <row r="778" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A778" s="55" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B778" s="54"/>
       <c r="C778" s="55"/>
     </row>
     <row r="779" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A779" s="55" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B779" s="54"/>
       <c r="C779" s="55"/>
     </row>
     <row r="780" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A780" s="55" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B780" s="54"/>
       <c r="C780" s="55"/>
     </row>
     <row r="781" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A781" s="55" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B781" s="54"/>
       <c r="C781" s="55"/>
     </row>
     <row r="782" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A782" s="55" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B782" s="54"/>
       <c r="C782" s="55"/>
     </row>
     <row r="783" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A783" s="55" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B783" s="54"/>
       <c r="C783" s="55"/>
     </row>
     <row r="784" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A784" s="55" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B784" s="54"/>
       <c r="C784" s="55"/>
     </row>
     <row r="785" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A785" s="55" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B785" s="54"/>
       <c r="C785" s="55"/>
     </row>
     <row r="786" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A786" s="55" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B786" s="54"/>
       <c r="C786" s="55"/>
     </row>
     <row r="787" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A787" s="55" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B787" s="54"/>
       <c r="C787" s="55"/>
     </row>
     <row r="788" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A788" s="55" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B788" s="54"/>
       <c r="C788" s="55"/>
     </row>
     <row r="789" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A789" s="55" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B789" s="54"/>
       <c r="C789" s="55"/>
     </row>
     <row r="790" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A790" s="55" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B790" s="54"/>
       <c r="C790" s="55"/>
     </row>
     <row r="791" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A791" s="55" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B791" s="54"/>
       <c r="C791" s="55"/>
     </row>
     <row r="792" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A792" s="55" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B792" s="54"/>
       <c r="C792" s="55"/>
     </row>
     <row r="793" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A793" s="55" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B793" s="54"/>
       <c r="C793" s="55"/>
     </row>
     <row r="794" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A794" s="55" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B794" s="54"/>
       <c r="C794" s="55"/>
     </row>
     <row r="795" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A795" s="55" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B795" s="54"/>
       <c r="C795" s="55"/>
@@ -7868,14 +7859,14 @@
     </row>
     <row r="797" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A797" s="55" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B797" s="54"/>
       <c r="C797" s="55"/>
     </row>
     <row r="798" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A798" s="55" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B798" s="54"/>
       <c r="C798" s="55"/>
@@ -7887,21 +7878,21 @@
     </row>
     <row r="800" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A800" s="55" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B800" s="54"/>
       <c r="C800" s="55"/>
     </row>
     <row r="801" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A801" s="55" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B801" s="54"/>
       <c r="C801" s="55"/>
     </row>
     <row r="803" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A803" s="55" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B803" s="54"/>
       <c r="C803" s="55"/>
@@ -7911,7 +7902,7 @@
     </row>
     <row r="804" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A804" s="55" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B804" s="54"/>
       <c r="C804" s="55"/>
@@ -7921,7 +7912,7 @@
     </row>
     <row r="805" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A805" s="55" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B805" s="54"/>
       <c r="C805" s="55"/>
@@ -7931,7 +7922,7 @@
     </row>
     <row r="806" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A806" s="55" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B806" s="54"/>
       <c r="C806" s="55"/>
@@ -7941,7 +7932,7 @@
     </row>
     <row r="807" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A807" s="55" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B807" s="54"/>
       <c r="C807" s="55"/>
@@ -7951,7 +7942,7 @@
     </row>
     <row r="808" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A808" s="55" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B808" s="54"/>
       <c r="C808" s="55"/>
@@ -7961,7 +7952,7 @@
     </row>
     <row r="809" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A809" s="55" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B809" s="54"/>
       <c r="C809" s="55"/>
@@ -7971,7 +7962,7 @@
     </row>
     <row r="810" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A810" s="55" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B810" s="54"/>
       <c r="C810" s="55"/>
@@ -7981,7 +7972,7 @@
     </row>
     <row r="811" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A811" s="55" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B811" s="54"/>
       <c r="C811" s="55"/>
@@ -7991,7 +7982,7 @@
     </row>
     <row r="812" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A812" s="55" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B812" s="54"/>
       <c r="C812" s="55"/>
@@ -8001,194 +7992,194 @@
     </row>
     <row r="814" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A814" s="52" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B814" s="54"/>
       <c r="C814" s="55"/>
     </row>
     <row r="815" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A815" s="52" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B815" s="54"/>
       <c r="C815" s="55"/>
     </row>
     <row r="816" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A816" s="52" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B816" s="54"/>
       <c r="C816" s="55"/>
     </row>
     <row r="817" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A817" s="52" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B817" s="54"/>
       <c r="C817" s="55"/>
     </row>
     <row r="818" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A818" s="52" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B818" s="54"/>
       <c r="C818" s="55"/>
     </row>
     <row r="819" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A819" s="52" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B819" s="54"/>
       <c r="C819" s="55"/>
     </row>
     <row r="820" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A820" s="52" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B820" s="54"/>
       <c r="C820" s="55"/>
     </row>
     <row r="822" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A822" s="55" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B822" s="54"/>
       <c r="C822" s="55"/>
     </row>
     <row r="823" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A823" s="55" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B823" s="54"/>
       <c r="C823" s="55"/>
     </row>
     <row r="824" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A824" s="55" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B824" s="54"/>
       <c r="C824" s="55"/>
     </row>
     <row r="825" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A825" s="55" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B825" s="54"/>
       <c r="C825" s="55"/>
     </row>
     <row r="826" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A826" s="55" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B826" s="54"/>
       <c r="C826" s="55"/>
     </row>
     <row r="828" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A828" s="52" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B828" s="54"/>
       <c r="C828" s="57"/>
     </row>
     <row r="829" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A829" s="52" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B829" s="54"/>
       <c r="C829" s="55"/>
     </row>
     <row r="830" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A830" s="52" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B830" s="54"/>
       <c r="C830" s="55"/>
     </row>
     <row r="831" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A831" s="52" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B831" s="54"/>
       <c r="C831" s="55"/>
     </row>
     <row r="832" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A832" s="52" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B832" s="54"/>
       <c r="C832" s="55"/>
     </row>
     <row r="833" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A833" s="52" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B833" s="54"/>
       <c r="C833" s="55"/>
     </row>
     <row r="834" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A834" s="52" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B834" s="54"/>
       <c r="C834" s="55"/>
     </row>
     <row r="835" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A835" s="55" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B835" s="54"/>
       <c r="C835" s="55"/>
     </row>
     <row r="837" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A837" s="52" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B837" s="54"/>
       <c r="C837" s="57"/>
     </row>
     <row r="838" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A838" s="52" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B838" s="54"/>
       <c r="C838" s="55"/>
     </row>
     <row r="839" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A839" s="52" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B839" s="54"/>
       <c r="C839" s="55"/>
     </row>
     <row r="840" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A840" s="52" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B840" s="54"/>
       <c r="C840" s="55"/>
     </row>
     <row r="842" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A842" s="55" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B842" s="54"/>
       <c r="C842" s="55"/>
     </row>
     <row r="843" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A843" s="55" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B843" s="54"/>
       <c r="C843" s="55"/>
     </row>
     <row r="845" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A845" s="69" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="846" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A846" s="69" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -8202,14 +8193,15 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.375" style="3" customWidth="1"/>
     <col min="2" max="2" width="36.5" style="3" customWidth="1"/>
-    <col min="3" max="4" width="15.875" style="14" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="14" customWidth="1"/>
+    <col min="4" max="4" width="53.25" style="14" customWidth="1"/>
     <col min="5" max="5" width="39.5" style="3" customWidth="1"/>
     <col min="6" max="16384" width="11" style="3"/>
   </cols>
@@ -8225,7 +8217,7 @@
         <v>51</v>
       </c>
       <c r="D1" s="33" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>25</v>
@@ -8239,7 +8231,7 @@
         <v>146</v>
       </c>
       <c r="C2" s="58">
-        <v>202009211</v>
+        <v>202101081</v>
       </c>
       <c r="D2" s="59" t="s">
         <v>242</v>

--- a/xlsx/form_g_registo_membros.xlsx
+++ b/xlsx/form_g_registo_membros.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Terra_Share\projects\CaVaTeCo_Collect\projects\monitor_forms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Terra_Share\projects\CaVaTeCo_Collect\projects\odk_forms_ilrg_madal\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9583D672-2397-4CA7-B2C5-DF5524DEC562}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA2F7F11-A8AD-4BB4-B8DF-0D13591B717F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="244">
   <si>
     <t>type</t>
   </si>
@@ -776,14 +776,24 @@
   <si>
     <t>http://cavateco.terrafirma.co.mz:8080/madal/submission</t>
   </si>
+  <si>
+    <t>consent_chuabo.mp3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1041,336 +1051,357 @@
   </borders>
   <cellStyleXfs count="245">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="233" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="234" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="233" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="234" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="234" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="234" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="1"/>
     </xf>
@@ -1378,65 +1409,47 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="244"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="244" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="244" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="244" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="244" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="0" xfId="244" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="243" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="244" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="244"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="244" applyFill="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="244" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="244" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="244" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="0" xfId="244" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="243" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="244" applyFont="1"/>
   </cellXfs>
   <cellStyles count="245">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2023,10 +2036,10 @@
   <dimension ref="A1:S62"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="G17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q1" sqref="Q1"/>
+      <selection pane="bottomRight" activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2608,8 +2621,8 @@
       <c r="M32" s="68"/>
       <c r="N32" s="68"/>
       <c r="O32" s="68"/>
-      <c r="P32" s="65" t="s">
-        <v>215</v>
+      <c r="P32" s="70" t="s">
+        <v>243</v>
       </c>
       <c r="Q32" s="65"/>
       <c r="R32" s="65"/>
@@ -3199,7 +3212,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -8192,8 +8205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8231,7 +8244,7 @@
         <v>146</v>
       </c>
       <c r="C2" s="58">
-        <v>202101081</v>
+        <v>2021020801</v>
       </c>
       <c r="D2" s="59" t="s">
         <v>242</v>
